--- a/数据整理/stocks/A股/深证主板/002511-中顺洁柔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002511-中顺洁柔.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,496 +512,676 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>24.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>87.15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.68</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9082</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7551</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6498</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2865</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>008276</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>财通资管价值发现混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>90.01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.26</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001183</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>009720</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>民生加银景气行业混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>87.15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>3.68</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>690009</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>民生加银红利回报混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>78.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001504</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006179</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国品质生活混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>84.78</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011309</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国消费主题混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519915</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>571002</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>诺德主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>79.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001183</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方利淘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>24.12</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001504</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方利淘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>24.12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001536</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方君选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>49.76</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002649</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>民生加银智造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>84.83</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003857</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源周期优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003858</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>前海开源周期优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>202213</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方核心竞争混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>72.24</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005680</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>财通资管价值成长混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>87.82</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>871003</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发资管价值增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008901</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国内需增长混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004351</t>
+          <t>011099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
+          <t>富国价值创造混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>85.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3545</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003857</t>
+          <t>009950</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源周期优选灵活配置混合A</t>
+          <t>财通资管均衡价值一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>29.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3477</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003858</t>
+          <t>010409</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源周期优选灵活配置混合C</t>
+          <t>富国消费精选30股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>25.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7389</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>871003</t>
+          <t>006179</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发资管价值增长灵活配置混合</t>
+          <t>富国品质生活混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>75.78</t>
+          <t>24.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5178</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005680</t>
+          <t>519915</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通资管价值成长混合</t>
+          <t>富国消费主题混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.84</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5073</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001972</t>
+          <t>008901</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+          <t>富国内需增长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>66.30</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0490</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005739</t>
+          <t>100056</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国转型机遇混合</t>
+          <t>富国低碳环保混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>80.99</t>
+          <t>18.69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9794</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006179</t>
+          <t>005739</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国品质生活混合</t>
+          <t>富国转型机遇混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.47</t>
+          <t>11.74</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6187</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009950</t>
+          <t>000925</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通资管均衡价值一年持有期混合</t>
+          <t>汇添富外延增长主题股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>24.89</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5277</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000590</t>
+          <t>010413</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安新活力灵活配置混合</t>
+          <t>财通资管宸瑞一年持有期混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20.15</t>
+          <t>20.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>51.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4826</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006429</t>
+          <t>005680</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>诺安恒鑫混合</t>
+          <t>财通资管价值成长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000706</t>
+          <t>871003</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中邮多策略灵活配置混合</t>
+          <t>广发资管价值增长灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>59.43</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006527</t>
+          <t>900009</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国优质发展混合A</t>
+          <t>中信证券成长动力混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>81.75</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>71.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006528</t>
+          <t>008276</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国优质发展混合C</t>
+          <t>财通资管价值发现混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>81.75</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000925</t>
+          <t>011100</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>汇添富外延增长主题股票A</t>
+          <t>富国价值创造混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>83.18</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011424</t>
+          <t>006527</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>汇添富外延增长主题股票C</t>
+          <t>富国优质发展混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>83.18</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1500,15 +1860,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>94.19</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>5.67</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010409</t>
+          <t>001547</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国消费精选30股票</t>
+          <t>兴业聚惠灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>78.45</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010413</t>
+          <t>900059</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>财通资管宸瑞一年持有期混合A</t>
+          <t>中信证券成长动力混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>51.32</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>71.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010414</t>
+          <t>002668</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>财通资管宸瑞一年持有期混合C</t>
+          <t>兴业聚丰灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>51.32</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1612,15 +2012,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>27.57</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>5.61</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010781</t>
+          <t>002923</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>兴业聚申一年持有期混合A</t>
+          <t>兴业聚惠灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010782</t>
+          <t>006429</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>兴业聚申一年持有期混合C</t>
+          <t>诺安恒鑫混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011099</t>
+          <t>010414</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富国价值创造混合A</t>
+          <t>财通资管宸瑞一年持有期混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>46.45</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>51.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011100</t>
+          <t>010781</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>富国价值创造混合C</t>
+          <t>兴业聚申一年持有期混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>46.45</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001547</t>
+          <t>002660</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>兴业聚惠灵活配置混合A</t>
+          <t>兴业聚源灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002923</t>
+          <t>009531</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>兴业聚惠灵活配置混合C</t>
+          <t>九泰锐和18个月定期开放混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>56.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>100056</t>
+          <t>004351</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>富国低碳环保混合</t>
+          <t>汇丰晋信珠三角区域发展混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>78.59</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001613</t>
+          <t>000590</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>长城久祥灵活配置混合</t>
+          <t>华安新活力灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3</v>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>519915</t>
+          <t>003857</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>富国消费主题混合A</t>
+          <t>前海开源周期优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>5</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>011309</t>
+          <t>002407</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>富国消费主题混合C</t>
+          <t>前海开源恒远灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
+          <t>39.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1920,15 +2430,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>85.57</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>4.94</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>002407</t>
+          <t>001613</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>前海开源恒远灵活配置混合</t>
+          <t>长城久祥灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>39.84</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>008901</t>
+          <t>003858</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>富国内需增长混合</t>
+          <t>前海开源周期优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>7</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002660</t>
+          <t>006528</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>兴业聚源灵活配置混合</t>
+          <t>富国优质发展混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22.09</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>7</v>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2022,25 +2572,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002668</t>
+          <t>011309</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>兴业聚丰灵活配置混合</t>
+          <t>富国消费主题混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22.08</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>008276</t>
+          <t>011424</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>财通资管价值发现混合</t>
+          <t>汇添富外延增长主题股票C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>5</v>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>009531</t>
+          <t>010782</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>九泰锐和18个月定期开放混合</t>
+          <t>兴业聚申一年持有期混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>56.07</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>8</v>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>900009</t>
+          <t>001972</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中信证券成长动力混合A</t>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>71.79</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>7</v>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>900059</t>
+          <t>000706</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中信证券成长动力混合C</t>
+          <t>中邮多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>71.79</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>7</v>
+          <t>59.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002511-中顺洁柔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002511-中顺洁柔.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2759,4 +2760,1238 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6587</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9897</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5682</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5671</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3900</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>206003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华信用增利债券 - A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>54.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>206004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华信用增利债券 - B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002511-中顺洁柔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002511-中顺洁柔.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3994,4 +3995,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002511-中顺洁柔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002511-中顺洁柔.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4089,4 +4090,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002511-中顺洁柔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002511-中顺洁柔.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4098,7 +4099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4109,17 +4110,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4129,14 +4150,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -4145,14 +4240,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>11.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -4161,14 +4256,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>15.66</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="5">
@@ -4177,13 +4272,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002511-中顺洁柔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002511-中顺洁柔.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,37 +466,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -506,36 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>690007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>民生加银景气行业混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24.68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9082</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -544,36 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519915</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7878</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -582,36 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008901</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国内需增长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>23.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7551</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.01</v>
       </c>
     </row>
     <row r="5">
@@ -620,36 +534,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>871003</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发资管价值增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.68</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6498</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.66</v>
       </c>
     </row>
     <row r="6">
@@ -658,530 +550,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006179</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国品质生活混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.78</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3685</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005680</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通资管价值成长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2865</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008276</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通资管价值发现混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1500</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002649</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>民生加银智造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1361</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>690009</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>民生加银红利回报混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>78.25</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1145</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>202213</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方核心竞争混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>72.24</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0487</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001536</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方君选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>49.76</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0458</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003857</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源周期优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001183</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方利淘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>24.12</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>571002</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>诺德主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>79.17</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003858</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>前海开源周期优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011309</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富国消费主题混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009720</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>民生加银景气行业混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>87.15</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001504</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方利淘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>24.12</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.36</v>
       </c>
     </row>
   </sheetData>
@@ -1190,6 +566,1428 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6587</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9897</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5682</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5671</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3900</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>206003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华信用增利债券 - A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>54.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>206004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华信用增利债券 - B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2765,13 +3563,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2822,36 +3620,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011099</t>
+          <t>690007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国价值创造混合A</t>
+          <t>民生加银景气行业混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>24.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.33</t>
+          <t>87.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6587</t>
+          <t>0.9082</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2870,26 +3668,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.27</t>
+          <t>24.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.6057</t>
+          <t>0.7878</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2898,36 +3696,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006179</t>
+          <t>008901</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国品质生活混合</t>
+          <t>富国内需增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29.88</t>
+          <t>23.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.82</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4313</t>
+          <t>0.7551</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2936,36 +3734,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010409</t>
+          <t>871003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国消费精选30股票</t>
+          <t>广发资管价值增长灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.96</t>
+          <t>13.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2115</t>
+          <t>0.6498</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2974,36 +3772,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008901</t>
+          <t>006179</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国内需增长混合</t>
+          <t>富国品质生活混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.61</t>
+          <t>16.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>84.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9897</t>
+          <t>0.3685</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3012,36 +3810,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>100056</t>
+          <t>005680</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国低碳环保混合</t>
+          <t>财通资管价值成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20.66</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80.79</t>
+          <t>87.82</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5682</t>
+          <t>0.2865</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -3050,32 +3848,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>871003</t>
+          <t>008276</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发资管价值增长灵活配置混合</t>
+          <t>财通资管价值发现混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.83</t>
+          <t>90.01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5671</t>
+          <t>0.1500</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3088,36 +3886,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005739</t>
+          <t>002649</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国转型机遇混合</t>
+          <t>民生加银智造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.98</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>84.83</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3900</t>
+          <t>0.1361</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -3126,36 +3924,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>217001</t>
+          <t>690009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商安泰混合</t>
+          <t>民生加银红利回报混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>77.08</t>
+          <t>78.25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2493</t>
+          <t>0.1145</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -3164,36 +3962,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011100</t>
+          <t>202213</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国价值创造混合C</t>
+          <t>南方核心竞争混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.33</t>
+          <t>72.24</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1903</t>
+          <t>0.0487</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -3202,36 +4000,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005855</t>
+          <t>001536</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
+          <t>南方君选灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>61.07</t>
+          <t>49.76</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1702</t>
+          <t>0.0458</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -3240,36 +4038,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>206003</t>
+          <t>003857</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华信用增利债券 - A</t>
+          <t>前海开源周期优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23.21</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>20.17</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1369</t>
+          <t>0.0326</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -3278,36 +4076,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005856</t>
+          <t>001183</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
+          <t>南方利淘灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>61.07</t>
+          <t>24.12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1126</t>
+          <t>0.0301</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -3316,36 +4114,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002510</t>
+          <t>571002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数增强A</t>
+          <t>诺德主题灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>79.17</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1021</t>
+          <t>0.0249</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -3354,36 +4152,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006527</t>
+          <t>003858</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国优质发展混合A</t>
+          <t>前海开源周期优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.42</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1016</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -3392,36 +4190,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000969</t>
+          <t>011309</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>前海开源大安全核心精选灵活配置混合</t>
+          <t>富国消费主题混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0827</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -3430,36 +4228,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002504</t>
+          <t>009720</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏华金鼎灵活配置混合A</t>
+          <t>民生加银景气行业混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>87.15</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0770</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -3468,834 +4266,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001060</t>
+          <t>001504</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>前海开源高端装备制造灵活配置混合</t>
+          <t>南方利淘灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>54.40</t>
+          <t>24.12</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0608</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011309</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富国消费主题混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>85.54</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0545</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003857</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>前海开源周期优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0511</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007277</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>恒生前海消费升级混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0493</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>前海开源恒远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>39.73</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004351</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>217021</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商优势企业混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>78.95</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007795</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006528</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国优质发展混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>81.42</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009613</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002505</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009614</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>003858</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>前海开源周期优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>206004</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>鹏华信用增利债券 - B</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>20.17</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>400020</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方成长回报平衡混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>40.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0474</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004250</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河量化优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>77.62</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.66</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.36</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002511-中顺洁柔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002511-中顺洁柔.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>11.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>15.66</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.36</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,36 +639,1022 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004250</t>
+          <t>012988</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河量化优选混合</t>
+          <t>嘉合锦明混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.62</t>
+          <t>87.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011977</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>格林研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉合睿金混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011978</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>格林研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉合睿金混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +1689,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -716,36 +1719,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>400020</t>
+          <t>004250</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方成长回报平衡混合</t>
+          <t>银河量化优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40.53</t>
+          <t>77.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0474</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -754,6 +1757,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1987,7 +3084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3563,7 +4660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
